--- a/Statsmodels/may future.xlsx
+++ b/Statsmodels/may future.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="123820"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://graduatehotels-my.sharepoint.com/personal/gtokusumi_graduatebloomington_com/Documents/Documents/Housekeeping Scripts/Forcasting/Linear Regression/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://graduatehotels-my.sharepoint.com/personal/gtokusumi_graduatebloomington_com/Documents/Documents/Housekeeping Scripts/Forcasting/Linear Regression/Rev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2A2CAA7-BF6E-4AC9-A708-7E20FEBAA121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{B5323A41-EFA2-43C1-BE6D-5B6610909164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6E362A7-614B-41B0-B0CD-8609189A7E9C}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,11 +21,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Date</t>
   </si>
   <si>
+    <t>Avail Rms</t>
+  </si>
+  <si>
+    <t>OOO Rms</t>
+  </si>
+  <si>
     <t>Rms Sold</t>
   </si>
   <si>
@@ -38,6 +44,9 @@
     <t>Arr Rms</t>
   </si>
   <si>
+    <t>Arrivals (Non-Guaranteed)</t>
+  </si>
+  <si>
     <t>Arr Res</t>
   </si>
   <si>
@@ -53,34 +62,97 @@
     <t>Cmp Rms</t>
   </si>
   <si>
+    <t>House Use Rms</t>
+  </si>
+  <si>
     <t>No Show Rms</t>
   </si>
   <si>
+    <t>Day Use Rms</t>
+  </si>
+  <si>
+    <t>Wait List Rms</t>
+  </si>
+  <si>
     <t>Trans Rms</t>
   </si>
   <si>
+    <t>Trans Rm Rev</t>
+  </si>
+  <si>
+    <t>Trans ADR</t>
+  </si>
+  <si>
+    <t>Grp Pkup Rms</t>
+  </si>
+  <si>
+    <t>Grp Rm Rev</t>
+  </si>
+  <si>
+    <t>Grp ADR</t>
+  </si>
+  <si>
+    <t>Grp Rem</t>
+  </si>
+  <si>
+    <t>Room Revenue</t>
+  </si>
+  <si>
+    <t>ADR</t>
+  </si>
+  <si>
+    <t>RevPAR</t>
+  </si>
+  <si>
+    <t>Guests</t>
+  </si>
+  <si>
     <t>05/12/2023 Fri</t>
   </si>
   <si>
+    <t>178 / 2</t>
+  </si>
+  <si>
     <t>05/13/2023 Sat</t>
   </si>
   <si>
+    <t>180 / 3</t>
+  </si>
+  <si>
     <t>05/14/2023 Sun</t>
   </si>
   <si>
+    <t>19 / 1</t>
+  </si>
+  <si>
     <t>05/15/2023 Mon</t>
   </si>
   <si>
+    <t>38 / 0</t>
+  </si>
+  <si>
     <t>05/16/2023 Tue</t>
   </si>
   <si>
+    <t>61 / 0</t>
+  </si>
+  <si>
     <t>05/17/2023 Wed</t>
   </si>
   <si>
+    <t>39 / 0</t>
+  </si>
+  <si>
     <t>05/18/2023 Thu</t>
   </si>
   <si>
+    <t>92 / 2</t>
+  </si>
+  <si>
     <t>05/19/2023 Fri</t>
+  </si>
+  <si>
+    <t>145 / 2</t>
   </si>
 </sst>
 </file>
@@ -141,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -158,6 +230,12 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -165,6 +243,12 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -502,26 +586,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:AB9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,309 +656,741 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B2" s="4">
+        <v>150</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
         <v>112</v>
       </c>
-      <c r="C2" s="4">
+      <c r="E2" s="4">
         <v>37</v>
       </c>
-      <c r="D2" s="5">
+      <c r="F2" s="5">
         <v>74.666667000000004</v>
       </c>
-      <c r="E2" s="4">
+      <c r="G2" s="4">
         <v>43</v>
       </c>
-      <c r="F2" s="4">
+      <c r="H2" s="4">
+        <v>3</v>
+      </c>
+      <c r="I2" s="4">
         <v>43</v>
       </c>
-      <c r="G2" s="4">
+      <c r="J2" s="4">
         <v>69</v>
       </c>
-      <c r="H2" s="4">
+      <c r="K2" s="4">
         <v>29</v>
-      </c>
-      <c r="I2" s="4">
-        <v>29</v>
-      </c>
-      <c r="J2" s="4">
-        <v>0</v>
-      </c>
-      <c r="K2" s="4">
-        <v>0</v>
       </c>
       <c r="L2" s="4">
         <v>29</v>
       </c>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0</v>
+      </c>
+      <c r="O2" s="4">
+        <v>0</v>
+      </c>
+      <c r="P2" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>0</v>
+      </c>
+      <c r="R2" s="4">
+        <v>29</v>
+      </c>
+      <c r="S2" s="6">
+        <v>11586.15</v>
+      </c>
+      <c r="T2" s="6">
+        <v>399.52241400000003</v>
+      </c>
+      <c r="U2" s="4">
+        <v>83</v>
+      </c>
+      <c r="V2" s="6">
+        <v>17687</v>
+      </c>
+      <c r="W2" s="6">
+        <v>213.096386</v>
+      </c>
+      <c r="X2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="6">
+        <v>29273.15</v>
+      </c>
+      <c r="Z2" s="6">
+        <v>261.367411</v>
+      </c>
+      <c r="AA2" s="6">
+        <v>195.15433300000001</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="9">
+        <v>150</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9">
+        <v>116</v>
+      </c>
+      <c r="E3" s="9">
+        <v>33</v>
+      </c>
+      <c r="F3" s="10">
+        <v>77.333332999999996</v>
+      </c>
+      <c r="G3" s="9">
         <v>13</v>
       </c>
-      <c r="B3" s="7">
-        <v>116</v>
-      </c>
-      <c r="C3" s="7">
+      <c r="H3" s="9">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9">
+        <v>13</v>
+      </c>
+      <c r="J3" s="9">
+        <v>103</v>
+      </c>
+      <c r="K3" s="9">
+        <v>9</v>
+      </c>
+      <c r="L3" s="9">
+        <v>9</v>
+      </c>
+      <c r="M3" s="9">
+        <v>0</v>
+      </c>
+      <c r="N3" s="9">
+        <v>0</v>
+      </c>
+      <c r="O3" s="9">
+        <v>0</v>
+      </c>
+      <c r="P3" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>0</v>
+      </c>
+      <c r="R3" s="9">
+        <v>28</v>
+      </c>
+      <c r="S3" s="11">
+        <v>11028.21</v>
+      </c>
+      <c r="T3" s="11">
+        <v>393.864643</v>
+      </c>
+      <c r="U3" s="9">
+        <v>88</v>
+      </c>
+      <c r="V3" s="11">
+        <v>18682</v>
+      </c>
+      <c r="W3" s="11">
+        <v>212.295455</v>
+      </c>
+      <c r="X3" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="11">
+        <v>29710.21</v>
+      </c>
+      <c r="Z3" s="11">
+        <v>256.1225</v>
+      </c>
+      <c r="AA3" s="11">
+        <v>198.06806700000001</v>
+      </c>
+      <c r="AB3" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="4">
+        <v>150</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4">
+        <v>133</v>
+      </c>
+      <c r="F4" s="5">
+        <v>10.666667</v>
+      </c>
+      <c r="G4" s="4">
+        <v>6</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>6</v>
+      </c>
+      <c r="J4" s="4">
+        <v>10</v>
+      </c>
+      <c r="K4" s="4">
+        <v>106</v>
+      </c>
+      <c r="L4" s="4">
+        <v>106</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4">
+        <v>16</v>
+      </c>
+      <c r="S4" s="6">
+        <v>2000.84</v>
+      </c>
+      <c r="T4" s="6">
+        <v>125.05249999999999</v>
+      </c>
+      <c r="U4" s="4">
+        <v>0</v>
+      </c>
+      <c r="V4" s="6">
+        <v>0</v>
+      </c>
+      <c r="W4" s="6">
+        <v>0</v>
+      </c>
+      <c r="X4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>2000.84</v>
+      </c>
+      <c r="Z4" s="6">
+        <v>125.05249999999999</v>
+      </c>
+      <c r="AA4" s="6">
+        <v>13.338933000000001</v>
+      </c>
+      <c r="AB4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="8">
-        <v>77.333332999999996</v>
-      </c>
-      <c r="E3" s="7">
-        <v>13</v>
-      </c>
-      <c r="F3" s="7">
-        <v>13</v>
-      </c>
-      <c r="G3" s="7">
-        <v>103</v>
-      </c>
-      <c r="H3" s="7">
-        <v>9</v>
-      </c>
-      <c r="I3" s="7">
-        <v>9</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7">
-        <v>28</v>
-      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="4">
-        <v>16</v>
-      </c>
-      <c r="C4" s="4">
-        <v>133</v>
-      </c>
-      <c r="D4" s="5">
-        <v>10.666667</v>
-      </c>
-      <c r="E4" s="4">
-        <v>6</v>
-      </c>
-      <c r="F4" s="4">
-        <v>6</v>
-      </c>
-      <c r="G4" s="4">
-        <v>10</v>
-      </c>
-      <c r="H4" s="4">
-        <v>106</v>
-      </c>
-      <c r="I4" s="4">
-        <v>106</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <v>0</v>
-      </c>
-      <c r="L4" s="4">
-        <v>16</v>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="9">
+        <v>150</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9">
+        <v>32</v>
+      </c>
+      <c r="E5" s="9">
+        <v>117</v>
+      </c>
+      <c r="F5" s="10">
+        <v>21.333333</v>
+      </c>
+      <c r="G5" s="9">
+        <v>24</v>
+      </c>
+      <c r="H5" s="9">
+        <v>1</v>
+      </c>
+      <c r="I5" s="9">
+        <v>24</v>
+      </c>
+      <c r="J5" s="9">
+        <v>8</v>
+      </c>
+      <c r="K5" s="9">
+        <v>8</v>
+      </c>
+      <c r="L5" s="9">
+        <v>8</v>
+      </c>
+      <c r="M5" s="9">
+        <v>0</v>
+      </c>
+      <c r="N5" s="9">
+        <v>0</v>
+      </c>
+      <c r="O5" s="9">
+        <v>0</v>
+      </c>
+      <c r="P5" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>0</v>
+      </c>
+      <c r="R5" s="9">
+        <v>32</v>
+      </c>
+      <c r="S5" s="11">
+        <v>3778.36</v>
+      </c>
+      <c r="T5" s="11">
+        <v>118.07375</v>
+      </c>
+      <c r="U5" s="9">
+        <v>0</v>
+      </c>
+      <c r="V5" s="11">
+        <v>0</v>
+      </c>
+      <c r="W5" s="11">
+        <v>0</v>
+      </c>
+      <c r="X5" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="11">
+        <v>3778.36</v>
+      </c>
+      <c r="Z5" s="11">
+        <v>118.07375</v>
+      </c>
+      <c r="AA5" s="11">
+        <v>25.189067000000001</v>
+      </c>
+      <c r="AB5" s="12" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="7">
-        <v>32</v>
-      </c>
-      <c r="C5" s="7">
-        <v>117</v>
-      </c>
-      <c r="D5" s="8">
-        <v>21.333333</v>
-      </c>
-      <c r="E5" s="7">
-        <v>24</v>
-      </c>
-      <c r="F5" s="7">
-        <v>24</v>
-      </c>
-      <c r="G5" s="7">
-        <v>8</v>
-      </c>
-      <c r="H5" s="7">
-        <v>8</v>
-      </c>
-      <c r="I5" s="7">
-        <v>8</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B6" s="4">
+        <v>150</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
         <v>50</v>
       </c>
-      <c r="C6" s="4">
+      <c r="E6" s="4">
         <v>99</v>
       </c>
-      <c r="D6" s="5">
+      <c r="F6" s="5">
         <v>33.333333000000003</v>
       </c>
-      <c r="E6" s="4">
+      <c r="G6" s="4">
         <v>27</v>
-      </c>
-      <c r="F6" s="4">
-        <v>27</v>
-      </c>
-      <c r="G6" s="4">
-        <v>23</v>
       </c>
       <c r="H6" s="4">
         <v>9</v>
       </c>
       <c r="I6" s="4">
+        <v>27</v>
+      </c>
+      <c r="J6" s="4">
+        <v>23</v>
+      </c>
+      <c r="K6" s="4">
         <v>9</v>
       </c>
-      <c r="J6" s="4">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
-        <v>0</v>
-      </c>
       <c r="L6" s="4">
+        <v>9</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4">
         <v>41</v>
       </c>
+      <c r="S6" s="6">
+        <v>5760.03</v>
+      </c>
+      <c r="T6" s="6">
+        <v>140.48853700000001</v>
+      </c>
+      <c r="U6" s="4">
+        <v>9</v>
+      </c>
+      <c r="V6" s="6">
+        <v>1071</v>
+      </c>
+      <c r="W6" s="6">
+        <v>119</v>
+      </c>
+      <c r="X6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>6831.03</v>
+      </c>
+      <c r="Z6" s="6">
+        <v>136.6206</v>
+      </c>
+      <c r="AA6" s="6">
+        <v>45.540199999999999</v>
+      </c>
+      <c r="AB6" s="7" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="9">
+        <v>150</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>28</v>
+      </c>
+      <c r="E7" s="9">
+        <v>122</v>
+      </c>
+      <c r="F7" s="10">
+        <v>18.666667</v>
+      </c>
+      <c r="G7" s="9">
+        <v>12</v>
+      </c>
+      <c r="H7" s="9">
+        <v>3</v>
+      </c>
+      <c r="I7" s="9">
+        <v>12</v>
+      </c>
+      <c r="J7" s="9">
+        <v>16</v>
+      </c>
+      <c r="K7" s="9">
+        <v>34</v>
+      </c>
+      <c r="L7" s="9">
+        <v>34</v>
+      </c>
+      <c r="M7" s="9">
+        <v>0</v>
+      </c>
+      <c r="N7" s="9">
+        <v>0</v>
+      </c>
+      <c r="O7" s="9">
+        <v>0</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0</v>
+      </c>
+      <c r="R7" s="9">
+        <v>28</v>
+      </c>
+      <c r="S7" s="11">
+        <v>3310.42</v>
+      </c>
+      <c r="T7" s="11">
+        <v>118.229286</v>
+      </c>
+      <c r="U7" s="9">
+        <v>0</v>
+      </c>
+      <c r="V7" s="11">
+        <v>0</v>
+      </c>
+      <c r="W7" s="11">
+        <v>0</v>
+      </c>
+      <c r="X7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="11">
+        <v>3310.42</v>
+      </c>
+      <c r="Z7" s="11">
+        <v>118.229286</v>
+      </c>
+      <c r="AA7" s="11">
+        <v>22.069467</v>
+      </c>
+      <c r="AB7" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="4">
+        <v>150</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>84</v>
+      </c>
+      <c r="E8" s="4">
+        <v>66</v>
+      </c>
+      <c r="F8" s="4">
+        <v>56</v>
+      </c>
+      <c r="G8" s="4">
+        <v>73</v>
+      </c>
+      <c r="H8" s="4">
+        <v>66</v>
+      </c>
+      <c r="I8" s="4">
+        <v>73</v>
+      </c>
+      <c r="J8" s="4">
+        <v>11</v>
+      </c>
+      <c r="K8" s="4">
         <v>17</v>
       </c>
-      <c r="B7" s="7">
+      <c r="L8" s="4">
+        <v>17</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
+      <c r="P8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>0</v>
+      </c>
+      <c r="R8" s="4">
+        <v>19</v>
+      </c>
+      <c r="S8" s="6">
+        <v>3346.47</v>
+      </c>
+      <c r="T8" s="6">
+        <v>176.13</v>
+      </c>
+      <c r="U8" s="4">
+        <v>65</v>
+      </c>
+      <c r="V8" s="6">
+        <v>8385</v>
+      </c>
+      <c r="W8" s="6">
+        <v>129</v>
+      </c>
+      <c r="X8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>11731.47</v>
+      </c>
+      <c r="Z8" s="6">
+        <v>139.660357</v>
+      </c>
+      <c r="AA8" s="6">
+        <v>78.209800000000001</v>
+      </c>
+      <c r="AB8" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="9">
+        <v>150</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="9">
+        <v>113</v>
+      </c>
+      <c r="E9" s="9">
+        <v>37</v>
+      </c>
+      <c r="F9" s="10">
+        <v>75.333332999999996</v>
+      </c>
+      <c r="G9" s="9">
+        <v>41</v>
+      </c>
+      <c r="H9" s="9">
+        <v>2</v>
+      </c>
+      <c r="I9" s="9">
+        <v>41</v>
+      </c>
+      <c r="J9" s="9">
+        <v>72</v>
+      </c>
+      <c r="K9" s="9">
+        <v>12</v>
+      </c>
+      <c r="L9" s="9">
+        <v>12</v>
+      </c>
+      <c r="M9" s="9">
+        <v>0</v>
+      </c>
+      <c r="N9" s="9">
+        <v>0</v>
+      </c>
+      <c r="O9" s="9">
+        <v>0</v>
+      </c>
+      <c r="P9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>0</v>
+      </c>
+      <c r="R9" s="9">
         <v>28</v>
       </c>
-      <c r="C7" s="7">
-        <v>122</v>
-      </c>
-      <c r="D7" s="8">
-        <v>18.666667</v>
-      </c>
-      <c r="E7" s="7">
-        <v>12</v>
-      </c>
-      <c r="F7" s="7">
-        <v>12</v>
-      </c>
-      <c r="G7" s="7">
-        <v>16</v>
-      </c>
-      <c r="H7" s="7">
-        <v>34</v>
-      </c>
-      <c r="I7" s="7">
-        <v>34</v>
-      </c>
-      <c r="J7" s="7">
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="4">
-        <v>84</v>
-      </c>
-      <c r="C8" s="4">
-        <v>66</v>
-      </c>
-      <c r="D8" s="4">
-        <v>56</v>
-      </c>
-      <c r="E8" s="4">
-        <v>73</v>
-      </c>
-      <c r="F8" s="4">
-        <v>73</v>
-      </c>
-      <c r="G8" s="4">
-        <v>11</v>
-      </c>
-      <c r="H8" s="4">
-        <v>17</v>
-      </c>
-      <c r="I8" s="4">
-        <v>17</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
-        <v>0</v>
-      </c>
-      <c r="L8" s="4">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="7">
-        <v>113</v>
-      </c>
-      <c r="C9" s="7">
-        <v>37</v>
-      </c>
-      <c r="D9" s="8">
-        <v>75.333332999999996</v>
-      </c>
-      <c r="E9" s="7">
-        <v>41</v>
-      </c>
-      <c r="F9" s="7">
-        <v>41</v>
-      </c>
-      <c r="G9" s="7">
-        <v>72</v>
-      </c>
-      <c r="H9" s="7">
-        <v>12</v>
-      </c>
-      <c r="I9" s="7">
-        <v>12</v>
-      </c>
-      <c r="J9" s="7">
-        <v>0</v>
-      </c>
-      <c r="K9" s="7">
-        <v>0</v>
-      </c>
-      <c r="L9" s="7">
-        <v>28</v>
+      <c r="S9" s="11">
+        <v>9683.9699999999993</v>
+      </c>
+      <c r="T9" s="11">
+        <v>345.85607099999999</v>
+      </c>
+      <c r="U9" s="9">
+        <v>85</v>
+      </c>
+      <c r="V9" s="11">
+        <v>12725</v>
+      </c>
+      <c r="W9" s="11">
+        <v>149.705882</v>
+      </c>
+      <c r="X9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="11">
+        <v>22408.97</v>
+      </c>
+      <c r="Z9" s="11">
+        <v>198.30946900000001</v>
+      </c>
+      <c r="AA9" s="11">
+        <v>149.39313300000001</v>
+      </c>
+      <c r="AB9" s="12" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
